--- a/BaseMachine ToDo.xlsx
+++ b/BaseMachine ToDo.xlsx
@@ -12,24 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>BaseMachine ToDo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sequencer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2017.01.11</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>EEPROMがSaveされていない場合、Loadするとハングする</t>
     <rPh sb="17" eb="19">
@@ -87,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DCF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SVFをデジ・ポットで実験</t>
     <rPh sb="11" eb="13">
       <t>ジッケン</t>
@@ -98,14 +81,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DCO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DCOの周波数をDDSのサンプリング値で補正できる？</t>
-  </si>
-  <si>
-    <t>PSoC4 DCO 三角波とノコギリ波をデューティ比で可変できるようにする。 VC++で実験済み</t>
   </si>
   <si>
     <t>4pole VCF Feedbackを検討</t>
@@ -142,6 +118,80 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RhythmMachineのmain.cのCY_ISR(Timer_Sampling_interrupt_handler)のPin_ISR_Check_Write(1u);でSync信号が出せない？</t>
+    <rPh sb="91" eb="93">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSoC4 DCO 三角波とノコギリ波をデューティ比で可変できるようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VC++で実験済み</t>
+  </si>
+  <si>
+    <t>ExioのロータリーエンコーダでEnvelopeのAmp/Filterを切り替え</t>
+    <rPh sb="36" eb="37">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LCDに表示 EA/EF</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下二桁？LCDのライブラリの文字表示関数のチェック</t>
+    <rPh sb="0" eb="3">
+      <t>シモフタケタ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>モジヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BaseMachine ToDo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sequencer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.03.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATTiny？でSuper Square DCOを作る</t>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +213,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -189,8 +248,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,149 +549,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="A1:E21"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="111.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C27" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/BaseMachine ToDo.xlsx
+++ b/BaseMachine ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>EEPROMがSaveされていない場合、Loadするとハングする</t>
     <rPh sb="17" eb="19">
@@ -185,13 +185,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.03.01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ATTiny？でSuper Square DCOを作る</t>
     <rPh sb="25" eb="26">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.05.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ladder Filterを検討</t>
+    <rPh sb="14" eb="16">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +232,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,11 +270,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -573,7 +601,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -590,10 +618,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -611,12 +639,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10">
@@ -643,6 +672,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>8</v>
       </c>
@@ -661,15 +691,17 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16">
+      <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="D17" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -687,6 +719,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
       <c r="B21">
         <v>2</v>
       </c>
@@ -704,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -713,10 +746,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -726,6 +759,14 @@
       </c>
       <c r="C27" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/BaseMachine ToDo.xlsx
+++ b/BaseMachine ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>EEPROMがSaveされていない場合、Loadするとハングする</t>
     <rPh sb="17" eb="19">
@@ -198,6 +198,22 @@
   <si>
     <t>Ladder Filterを検討</t>
     <rPh sb="14" eb="16">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VCVSとSVFをファームウェア変更なしで切り替えられるか検討</t>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
       <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -207,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +257,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -270,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +305,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,10 +607,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -705,67 +732,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="B20">
+    <row r="21" spans="1:4">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21">
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23">
+    <row r="24" spans="1:4">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="2">
+    <row r="27" spans="1:4">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>24</v>
       </c>
     </row>

--- a/BaseMachine ToDo.xlsx
+++ b/BaseMachine ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>EEPROMがSaveされていない場合、Loadするとハングする</t>
     <rPh sb="17" eb="19">
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.05.04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ladder Filterを検討</t>
     <rPh sb="14" eb="16">
       <t>ケントウ</t>
@@ -215,6 +211,34 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDI入力でできる？</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Songモードを作る？</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.05.07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定エンベロープをExioのロータリーエンコーダーで切替るテスト</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キリカエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -294,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +332,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,10 +634,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -628,7 +655,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -675,134 +702,158 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12">
+    <row r="14" spans="1:4">
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13">
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="D14" t="s">
+    <row r="16" spans="1:4">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="D15" t="s">
+    <row r="17" spans="1:4">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2">
+    <row r="18" spans="1:4">
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>14</v>
+      <c r="A23" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="2">
+    <row r="30" spans="1:4">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="B28">
+    <row r="31" spans="1:4">
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29">
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
+      <c r="C32" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
